--- a/api-server-django/api/assessment/sample/level2.xlsx
+++ b/api-server-django/api/assessment/sample/level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A4BCB-81AD-4B9C-8366-40519A6D5980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D09993-882E-48BF-A7CC-8A53DF1B437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -1380,6 +1380,9 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,17 +1471,17 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1487,14 +1490,20 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1502,8 +1511,8 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,24 +1522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1544,13 +1535,28 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1565,23 +1571,20 @@
     <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1591,9 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28289,7 +28289,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">TODAY()</f>
         <v>45240</v>
       </c>
@@ -28332,12 +28332,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28362,45 +28362,45 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="126" t="s">
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="127" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="126"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="126"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="21"/>
       <c r="H13" s="5"/>
     </row>
@@ -28416,22 +28416,22 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28466,72 +28466,72 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28556,32 +28556,32 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
       <c r="H31" s="5"/>
       <c r="L31"/>
     </row>
@@ -28688,46 +28688,46 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28797,22 +28797,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -28902,7 +28902,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -28937,12 +28937,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -28965,24 +28965,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -28998,7 +28998,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -29018,7 +29018,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29030,7 +29030,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29040,7 +29040,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29061,20 +29061,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -29102,10 +29102,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -29125,10 +29125,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -29142,10 +29142,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -29160,10 +29160,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -29176,10 +29176,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -29307,12 +29307,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -29370,11 +29370,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -29532,22 +29532,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -29566,11 +29566,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -29583,6 +29578,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -29639,7 +29639,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -29674,12 +29674,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -29702,24 +29702,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -29735,7 +29735,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -29755,7 +29755,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29767,7 +29767,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29777,7 +29777,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29798,20 +29798,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -29839,10 +29839,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -29862,10 +29862,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -29879,10 +29879,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -29897,10 +29897,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -29913,10 +29913,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -30044,12 +30044,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30107,11 +30107,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -30269,22 +30269,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -30303,11 +30303,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -30320,6 +30315,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30376,7 +30376,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -30411,12 +30411,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -30439,24 +30439,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -30472,7 +30472,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -30492,7 +30492,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30504,7 +30504,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30514,7 +30514,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -30535,20 +30535,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -30576,10 +30576,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -30599,10 +30599,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -30616,10 +30616,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -30634,10 +30634,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -30650,10 +30650,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -30781,12 +30781,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30844,11 +30844,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -31006,22 +31006,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -31040,11 +31040,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -31057,6 +31052,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31110,7 +31110,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -31155,14 +31155,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31177,24 +31177,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31251,10 +31251,10 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31273,8 +31273,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31291,10 +31291,10 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
       <c r="L15" s="4" t="s">
@@ -31313,8 +31313,8 @@
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
       <c r="L16" s="4" t="s">
@@ -31333,8 +31333,8 @@
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
@@ -31400,16 +31400,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="160"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31425,8 +31425,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -31435,8 +31435,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -31445,8 +31445,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -31455,10 +31455,10 @@
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -31467,16 +31467,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -31625,16 +31625,16 @@
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="160"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="158" t="s">
+      <c r="F43" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="160"/>
+      <c r="G43" s="163"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31650,8 +31650,8 @@
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="82"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="19"/>
       <c r="F45" s="76"/>
       <c r="G45" s="77"/>
@@ -31660,8 +31660,8 @@
     <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="82"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="168"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="19"/>
       <c r="F46" s="76"/>
       <c r="G46" s="77"/>
@@ -31670,8 +31670,8 @@
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="83"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="71"/>
       <c r="F47" s="78"/>
       <c r="G47" s="79"/>
@@ -31679,22 +31679,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -31722,22 +31722,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -31756,17 +31756,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -31780,6 +31769,17 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B9:G10"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31833,7 +31833,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -31900,22 +31900,22 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31972,10 +31972,10 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31994,8 +31994,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -32012,10 +32012,10 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
       <c r="L15" s="4" t="s">
@@ -32034,8 +32034,8 @@
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
       <c r="L16" s="4" t="s">
@@ -32054,8 +32054,8 @@
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
@@ -32121,16 +32121,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="160"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -32146,8 +32146,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="82"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -32156,8 +32156,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -32166,8 +32166,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -32176,10 +32176,10 @@
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -32188,16 +32188,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -32276,34 +32276,34 @@
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -32400,24 +32400,24 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -32445,22 +32445,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -32479,6 +32479,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B36:G38"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B46:G47"/>
@@ -32495,11 +32500,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B9:G10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B36:G38"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -32553,7 +32553,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -32598,14 +32598,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32620,24 +32620,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -32720,14 +32720,14 @@
       <c r="B14" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="175" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="176"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="97"/>
       <c r="H14" s="19"/>
       <c r="L14" s="4" t="s">
@@ -32806,14 +32806,14 @@
       <c r="B18" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="175" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="176"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="97"/>
       <c r="H18" s="19"/>
       <c r="L18" s="4" t="s">
@@ -32862,14 +32862,14 @@
       <c r="B21" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="175" t="s">
+      <c r="D21" s="178"/>
+      <c r="E21" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="176"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="97"/>
       <c r="H21" s="19"/>
     </row>
@@ -32898,14 +32898,14 @@
       <c r="B24" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="175" t="s">
+      <c r="D24" s="178"/>
+      <c r="E24" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="176"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="98"/>
       <c r="H24" s="19"/>
     </row>
@@ -32934,14 +32934,14 @@
       <c r="B27" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="175" t="s">
+      <c r="D27" s="178"/>
+      <c r="E27" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="176"/>
+      <c r="F27" s="178"/>
       <c r="G27" s="97"/>
       <c r="H27" s="19"/>
     </row>
@@ -32998,10 +32998,10 @@
     </row>
     <row r="33" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="177"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -33117,9 +33117,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -33137,14 +33137,14 @@
       <c r="C46" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="174"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174" t="s">
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="174"/>
-      <c r="I46" s="174"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -33173,9 +33173,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
     </row>
     <row r="50" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -33184,9 +33184,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -33209,16 +33209,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -33237,11 +33237,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E18:F18"/>
@@ -33256,6 +33251,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -33310,7 +33310,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -33355,10 +33355,10 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -33377,24 +33377,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -33406,12 +33406,12 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -33532,14 +33532,14 @@
       <c r="C17" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="174" t="s">
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
@@ -33574,10 +33574,10 @@
     </row>
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="181"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
@@ -33608,25 +33608,25 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -33665,45 +33665,45 @@
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -33711,9 +33711,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="67"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -33727,11 +33727,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="182" t="s">
+      <c r="G31" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33758,10 +33758,10 @@
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="180"/>
+      <c r="C34" s="181"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -33782,49 +33782,49 @@
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -33925,11 +33925,11 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="174" t="s">
+      <c r="G48" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="174"/>
-      <c r="I48" s="174"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -33955,9 +33955,9 @@
       <c r="A51" s="5"/>
       <c r="B51" s="19"/>
       <c r="C51" s="91"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
       <c r="G51" s="91"/>
       <c r="H51" s="91"/>
     </row>
@@ -33972,16 +33972,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -34000,12 +34000,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="D17:F17"/>
@@ -34018,6 +34012,12 @@
     <mergeCell ref="B21:G22"/>
     <mergeCell ref="B26:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -34030,7 +34030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7DA315-18D3-44DF-A980-2EFCA192861E}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -34071,7 +34071,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -34333,9 +34333,9 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
       <c r="F19" s="73"/>
       <c r="G19" s="90"/>
       <c r="H19" s="5"/>
@@ -34362,11 +34362,11 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="177" t="s">
+      <c r="B21" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -34374,9 +34374,9 @@
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -34384,34 +34384,34 @@
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34426,14 +34426,14 @@
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34448,24 +34448,24 @@
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -34541,34 +34541,34 @@
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
       <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -34643,46 +34643,46 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="186" t="s">
+      <c r="B48" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="185" t="s">
+      <c r="B50" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="185"/>
-      <c r="C51" s="185"/>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -34696,16 +34696,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -34745,8 +34745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34789,7 +34789,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -34824,14 +34824,14 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -34858,52 +34858,52 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="5"/>
       <c r="N13" s="18" t="s">
         <v>0</v>
@@ -34947,24 +34947,24 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34974,12 +34974,12 @@
         <v>Mentor</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="139" t="str">
+      <c r="D19" s="140" t="str">
         <f>L23</f>
         <v>Guardian</v>
       </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="42" t="str">
         <f>L24</f>
         <v>Principal</v>
@@ -35056,18 +35056,18 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="132">
+      <c r="B24" s="133">
         <f>M22</f>
         <v>4</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="133">
+      <c r="D24" s="134">
         <f>M23</f>
         <v>45</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="135">
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="136">
         <f>M24</f>
         <v>59</v>
       </c>
@@ -35085,12 +35085,12 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="132"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="136"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="5"/>
       <c r="L25" s="4" t="s">
         <v>12</v>
@@ -35127,12 +35127,12 @@
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="38" t="s">
         <v>48</v>
       </c>
@@ -35170,14 +35170,14 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
       <c r="H29" s="5"/>
       <c r="L29" s="4" t="s">
         <v>13</v>
@@ -35224,14 +35224,14 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
       <c r="H32" s="5"/>
       <c r="J32" s="4" t="s">
         <v>50</v>
@@ -35239,12 +35239,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -35255,12 +35255,12 @@
         <v>Mentor</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="140" t="str">
+      <c r="D34" s="141" t="str">
         <f>L26</f>
         <v>Principal</v>
       </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
       <c r="G34" s="43" t="str">
         <f>L27</f>
         <v>Mentor</v>
@@ -35326,12 +35326,12 @@
         <v>59</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="137">
+      <c r="D40" s="138">
         <f>M26</f>
         <v>59</v>
       </c>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
       <c r="G40" s="46">
         <f>M27</f>
         <v>59</v>
@@ -35357,10 +35357,10 @@
       <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
       <c r="G42" s="38"/>
       <c r="H42" s="19"/>
       <c r="I42"/>
@@ -35380,14 +35380,14 @@
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
       <c r="H44" s="19"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -35484,22 +35484,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -35590,7 +35590,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -35625,12 +35625,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -35647,24 +35647,24 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -35674,12 +35674,12 @@
         <v>Mentor</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="142" t="str">
+      <c r="D10" s="143" t="str">
         <f>Page2!$L$29</f>
         <v>Guardian</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
       <c r="G10" s="52" t="str">
         <f>Page2!$L$30</f>
         <v>Principal</v>
@@ -35773,12 +35773,12 @@
       <c r="B18" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="29" t="s">
         <v>15</v>
       </c>
@@ -35796,14 +35796,14 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
       <c r="H20" s="20"/>
       <c r="O20"/>
     </row>
@@ -35821,14 +35821,14 @@
     </row>
     <row r="22" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="5"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
@@ -35847,13 +35847,13 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="19"/>
       <c r="H24" s="5"/>
       <c r="M24" s="26"/>
@@ -35861,11 +35861,11 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
       <c r="M25" s="26"/>
@@ -35909,52 +35909,52 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="23"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="23"/>
       <c r="G30" s="19"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
       <c r="F31" s="23"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="19"/>
@@ -35974,45 +35974,45 @@
     </row>
     <row r="35" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
       <c r="G35" s="5"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
       <c r="G36" s="5"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="141" t="s">
+      <c r="B37" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
       <c r="G37" s="5"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
       <c r="G38" s="5"/>
       <c r="H38" s="19"/>
     </row>
@@ -36056,12 +36056,12 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="23"/>
       <c r="G42" s="5"/>
       <c r="H42" s="19"/>
@@ -36070,10 +36070,10 @@
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="23"/>
       <c r="G43" s="5"/>
       <c r="H43" s="19"/>
@@ -36082,10 +36082,10 @@
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="23"/>
       <c r="G44" s="5"/>
       <c r="H44" s="19"/>
@@ -36097,10 +36097,10 @@
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="23"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
@@ -36109,10 +36109,10 @@
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
@@ -36135,13 +36135,13 @@
     </row>
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48"/>
@@ -36152,11 +36152,11 @@
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49"/>
@@ -36191,22 +36191,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -36296,7 +36296,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -36331,12 +36331,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -36353,24 +36353,24 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -36380,7 +36380,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="118" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="5"/>
@@ -36394,7 +36394,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -36406,7 +36406,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -36416,7 +36416,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="117"/>
+      <c r="G13" s="118"/>
       <c r="H13" s="5"/>
       <c r="N13" s="18" t="s">
         <v>0</v>
@@ -36434,97 +36434,97 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="147"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="125" t="s">
+      <c r="G17" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="125" t="s">
+      <c r="G18" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="125" t="s">
+      <c r="G20" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
       <c r="L20"/>
       <c r="O20"/>
     </row>
@@ -36642,11 +36642,11 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -36654,9 +36654,9 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
@@ -36664,9 +36664,9 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
@@ -36674,14 +36674,14 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -36910,22 +36910,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -36944,6 +36944,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B30:D32"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -36954,15 +36963,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B30:D32"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -37019,7 +37019,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -37054,12 +37054,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -37071,7 +37071,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="150" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
@@ -37085,7 +37085,7 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="149"/>
+      <c r="G8" s="150"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -37095,7 +37095,7 @@
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="149"/>
+      <c r="G9" s="150"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -37126,10 +37126,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="150"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37625,22 +37625,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -37720,7 +37720,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -37755,12 +37755,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -37772,7 +37772,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="150" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
@@ -37786,7 +37786,7 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="149"/>
+      <c r="G8" s="150"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -37796,7 +37796,7 @@
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="149"/>
+      <c r="G9" s="150"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -37827,10 +37827,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="150"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -38326,22 +38326,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -38421,7 +38421,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -38456,12 +38456,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -38484,24 +38484,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -38517,7 +38517,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -38537,7 +38537,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38549,7 +38549,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38559,7 +38559,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38580,20 +38580,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -38621,10 +38621,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -38644,10 +38644,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -38661,10 +38661,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -38679,10 +38679,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -38695,10 +38695,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -38826,12 +38826,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -38889,11 +38889,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -39051,22 +39051,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -39085,23 +39085,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39158,7 +39158,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -39193,12 +39193,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -39221,24 +39221,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -39254,7 +39254,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -39274,7 +39274,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39286,7 +39286,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39296,7 +39296,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39317,20 +39317,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -39358,10 +39358,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -39381,10 +39381,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -39398,10 +39398,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -39416,10 +39416,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -39432,10 +39432,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -39563,12 +39563,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -39626,11 +39626,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -39788,22 +39788,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -39822,11 +39822,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -39839,6 +39834,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39895,7 +39895,7 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="187">
+      <c r="B3" s="115">
         <f ca="1">Page1!B3</f>
         <v>45240</v>
       </c>
@@ -39930,12 +39930,12 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -39958,24 +39958,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -39991,7 +39991,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="155" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -40011,7 +40011,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,7 +40023,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40033,7 +40033,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -40054,20 +40054,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -40095,10 +40095,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="151" t="s">
+      <c r="G18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="151"/>
+      <c r="H18" s="152"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -40118,10 +40118,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="151"/>
+      <c r="H19" s="152"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -40135,10 +40135,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="151"/>
+      <c r="H20" s="152"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -40153,10 +40153,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="151"/>
+      <c r="H21" s="152"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -40169,10 +40169,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="151"/>
+      <c r="H22" s="152"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -40300,12 +40300,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -40363,11 +40363,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -40525,22 +40525,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="119" t="s">
+      <c r="A53" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -40559,11 +40559,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -40576,6 +40571,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level2.xlsx
+++ b/api-server-django/api/assessment/sample/level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D09993-882E-48BF-A7CC-8A53DF1B437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B58DC6-04B8-4F79-8822-69721DA866C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="129">
   <si>
     <t> ®</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>Sumith's Inclination</t>
-  </si>
-  <si>
     <t>Dominion</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   <si>
     <t>Emotion is input_emotion &amp; input_color</t>
   </si>
+  <si>
+    <t>user_name's Inclination</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +546,7 @@
     <numFmt numFmtId="165" formatCode="0\%"/>
     <numFmt numFmtId="166" formatCode="mmmm/yy"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,13 +766,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1283,19 +1276,13 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1374,14 +1361,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1471,17 +1461,17 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1490,20 +1480,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1511,8 +1495,8 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1529,34 +1513,40 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1568,23 +1558,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2457,17 +2450,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Page16!$L$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Guardian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -2541,12 +2523,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Page16!$M$18</c:f>
+              <c:f>Page16!$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0\%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23796,8 +23778,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5888026" y="61903"/>
-          <a:ext cx="3871704" cy="1046110"/>
+          <a:off x="5918388" y="61903"/>
+          <a:ext cx="3871999" cy="1030782"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -24885,8 +24867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5888026" y="61903"/>
-          <a:ext cx="3871704" cy="1046110"/>
+          <a:off x="5927802" y="61903"/>
+          <a:ext cx="3873045" cy="1037842"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -28289,9 +28271,9 @@
     </row>
     <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -28332,12 +28314,12 @@
     </row>
     <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28362,45 +28344,45 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="127" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="126" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="127"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="127"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="21"/>
       <c r="H13" s="5"/>
     </row>
@@ -28416,22 +28398,22 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28466,72 +28448,72 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28556,32 +28538,32 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
       <c r="H31" s="5"/>
       <c r="L31"/>
     </row>
@@ -28688,46 +28670,46 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="126" t="s">
+      <c r="B45" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28763,7 +28745,7 @@
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -28797,22 +28779,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -28858,8 +28840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02CE9F8-2553-49D1-9843-FA55430A7AC2}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28902,9 +28884,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -28937,18 +28919,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -28965,24 +28947,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -28998,7 +28980,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -29018,7 +29000,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29030,7 +29012,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29040,7 +29022,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29061,20 +29043,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -29102,10 +29084,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -29125,10 +29107,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -29142,10 +29124,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -29160,10 +29142,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -29176,10 +29158,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -29251,9 +29233,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -29285,7 +29265,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -29307,12 +29287,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -29370,11 +29350,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -29532,22 +29512,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -29566,6 +29546,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -29578,11 +29563,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -29595,8 +29575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B51258D-179A-4C5F-9DF3-27E53A9441F4}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29639,9 +29619,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -29674,18 +29654,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -29702,24 +29682,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -29735,7 +29715,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -29755,7 +29735,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29767,7 +29747,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29777,7 +29757,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29798,20 +29778,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -29839,10 +29819,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -29862,10 +29842,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -29879,10 +29859,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -29897,10 +29877,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -29913,10 +29893,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -29988,9 +29968,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -30022,7 +30000,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -30044,12 +30022,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30107,11 +30085,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -30269,22 +30247,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -30303,6 +30281,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -30315,11 +30298,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30333,7 +30311,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30376,9 +30354,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -30411,18 +30389,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -30439,24 +30417,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -30472,7 +30450,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="5"/>
@@ -30492,7 +30470,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30504,7 +30482,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30514,7 +30492,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -30535,20 +30513,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -30576,10 +30554,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -30599,10 +30577,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -30616,10 +30594,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -30634,10 +30612,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -30650,10 +30628,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -30725,9 +30703,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -30759,7 +30735,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -30781,12 +30757,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30844,11 +30820,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -31006,22 +30982,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -31040,6 +31016,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -31052,11 +31033,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31069,8 +31045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FD2A84-99E2-4006-BC8F-518A83486652}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31110,9 +31086,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -31155,14 +31131,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
+      <c r="B7" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31177,24 +31153,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31206,16 +31182,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66" t="s">
-        <v>82</v>
-      </c>
+      <c r="F11" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="164"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31238,7 +31214,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -31251,10 +31227,10 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31273,8 +31249,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31291,10 +31267,10 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
       <c r="L15" s="4" t="s">
@@ -31313,8 +31289,8 @@
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
       <c r="L16" s="4" t="s">
@@ -31333,8 +31309,8 @@
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
@@ -31400,16 +31376,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="163"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31425,8 +31401,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -31435,8 +31411,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -31444,9 +31420,9 @@
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -31455,10 +31431,10 @@
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -31467,29 +31443,31 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
       <c r="E29" s="65"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="19"/>
+      <c r="F29" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="164"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -31625,16 +31603,16 @@
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="159"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="163"/>
+      <c r="G43" s="160"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31649,9 +31627,9 @@
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="162"/>
       <c r="E45" s="19"/>
       <c r="F45" s="76"/>
       <c r="G45" s="77"/>
@@ -31659,9 +31637,9 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="19"/>
       <c r="F46" s="76"/>
       <c r="G46" s="77"/>
@@ -31669,9 +31647,9 @@
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="71"/>
       <c r="F47" s="78"/>
       <c r="G47" s="79"/>
@@ -31679,22 +31657,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -31722,22 +31700,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -31755,7 +31733,19 @@
       <c r="F56" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -31769,17 +31759,9 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="B9:G10"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31792,8 +31774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E1F923-CF36-414C-9743-F0CD333B33B8}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="62" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31833,9 +31815,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -31878,14 +31860,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
+      <c r="B7" s="173" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31900,22 +31882,22 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31927,16 +31909,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66" t="s">
-        <v>82</v>
-      </c>
+      <c r="F11" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="164"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31959,7 +31941,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -31972,10 +31954,10 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31994,8 +31976,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -32012,10 +31994,10 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
       <c r="L15" s="4" t="s">
@@ -32034,8 +32016,8 @@
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="19"/>
       <c r="H16" s="5"/>
       <c r="L16" s="4" t="s">
@@ -32054,8 +32036,8 @@
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
@@ -32121,16 +32103,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="163"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -32145,9 +32127,9 @@
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -32155,9 +32137,9 @@
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -32165,9 +32147,9 @@
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -32176,10 +32158,10 @@
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -32188,16 +32170,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -32276,34 +32258,34 @@
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
+      <c r="B36" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="174"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -32378,46 +32360,46 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="173" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
+      <c r="B46" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="174"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="160" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
+      <c r="B48" s="168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -32445,22 +32427,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -32478,11 +32460,8 @@
       <c r="F56" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="23">
+    <mergeCell ref="B9:G10"/>
     <mergeCell ref="B36:G38"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B7:G7"/>
@@ -32499,7 +32478,12 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -32513,7 +32497,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32553,9 +32537,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -32598,14 +32582,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
+      <c r="B7" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32620,24 +32604,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="175" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
+      <c r="B9" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -32660,32 +32644,32 @@
         <v>12</v>
       </c>
       <c r="M11" s="37">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N11" s="37">
         <f>100-M11</f>
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107" t="s">
-        <v>120</v>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105" t="s">
+        <v>119</v>
       </c>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -32697,12 +32681,12 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="19"/>
       <c r="L13" s="4" t="s">
         <v>14</v>
@@ -32717,18 +32701,18 @@
     </row>
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="177" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="97"/>
+      <c r="C14" s="176" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="177"/>
+      <c r="E14" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="19"/>
       <c r="L14" s="4" t="s">
         <v>12</v>
@@ -32743,32 +32727,32 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="19"/>
       <c r="L15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="37">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="N15" s="37">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="19"/>
       <c r="L16" s="4" t="s">
         <v>12</v>
@@ -32783,12 +32767,12 @@
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="19"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
@@ -32803,38 +32787,38 @@
     </row>
     <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="97"/>
+      <c r="B18" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="176" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="177"/>
+      <c r="E18" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="177"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="19"/>
       <c r="L18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="37">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="N18" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="19"/>
       <c r="L19" s="4" t="s">
         <v>14</v>
@@ -32849,130 +32833,130 @@
     </row>
     <row r="20" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="177" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="97"/>
+      <c r="B21" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="176" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="177"/>
+      <c r="E21" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="177"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="177" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="98"/>
+      <c r="B24" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="177"/>
+      <c r="E24" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="177"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="176" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="177"/>
+      <c r="E27" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="97"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32998,10 +32982,10 @@
     </row>
     <row r="33" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="179"/>
+      <c r="B33" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="178"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -33021,7 +33005,7 @@
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -33117,9 +33101,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -33135,16 +33119,16 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -33173,9 +33157,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
     </row>
     <row r="50" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -33184,9 +33168,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -33209,16 +33193,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -33237,6 +33221,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E18:F18"/>
@@ -33251,11 +33240,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -33310,9 +33294,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -33355,14 +33339,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="179" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="179"/>
+      <c r="B7" s="178" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="178"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="92"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -33377,24 +33361,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
+      <c r="B9" s="180" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -33406,12 +33390,12 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -33434,7 +33418,7 @@
       <c r="G12" s="66"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -33530,16 +33514,16 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="176" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
@@ -33575,7 +33559,7 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="181"/>
       <c r="D19" s="63"/>
@@ -33608,25 +33592,25 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="175" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
+      <c r="B21" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -33643,8 +33627,8 @@
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -33665,45 +33649,45 @@
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -33711,9 +33695,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="67"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -33727,11 +33711,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="184" t="s">
+      <c r="G31" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33759,7 +33743,7 @@
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="181"/>
       <c r="D34" s="5"/>
@@ -33782,49 +33766,49 @@
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="180" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
+      <c r="B36" s="184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
+      <c r="B39" s="184" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -33919,17 +33903,17 @@
     <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="91" t="s">
-        <v>98</v>
+      <c r="C48" s="89" t="s">
+        <v>97</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="176" t="s">
+      <c r="G48" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -33954,12 +33938,12 @@
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
     </row>
     <row r="52" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -33972,16 +33956,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -34000,6 +33984,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="D17:F17"/>
@@ -34012,12 +34002,6 @@
     <mergeCell ref="B21:G22"/>
     <mergeCell ref="B26:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -34071,9 +34055,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -34116,10 +34100,10 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="84"/>
+      <c r="B7" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="82"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -34138,24 +34122,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="B9" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -34172,9 +34156,9 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
@@ -34196,7 +34180,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -34248,12 +34232,12 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="5"/>
       <c r="L15" s="4" t="s">
         <v>14</v>
@@ -34268,12 +34252,12 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="5"/>
       <c r="L16" s="4" t="s">
         <v>12</v>
@@ -34288,12 +34272,12 @@
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="5"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
@@ -34309,13 +34293,13 @@
     <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="67"/>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="88" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="5"/>
@@ -34333,11 +34317,11 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
       <c r="F19" s="73"/>
-      <c r="G19" s="90"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="5"/>
       <c r="L19" s="4" t="s">
         <v>14</v>
@@ -34362,11 +34346,11 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
+      <c r="B21" s="178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -34374,9 +34358,9 @@
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -34384,72 +34368,72 @@
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
+      <c r="B23" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="179" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
+      <c r="B27" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="185"/>
       <c r="D29" s="185"/>
@@ -34541,34 +34525,34 @@
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
+      <c r="B38" s="172" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -34644,7 +34628,7 @@
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="187"/>
       <c r="D48" s="187"/>
@@ -34666,7 +34650,7 @@
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="186"/>
       <c r="D50" s="186"/>
@@ -34696,16 +34680,16 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -34745,8 +34729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34789,9 +34773,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -34824,14 +34808,14 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -34858,52 +34842,52 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
       <c r="H13" s="5"/>
       <c r="N13" s="18" t="s">
         <v>0</v>
@@ -34947,24 +34931,24 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34974,12 +34958,12 @@
         <v>Mentor</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="140" t="str">
+      <c r="D19" s="139" t="str">
         <f>L23</f>
         <v>Guardian</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="42" t="str">
         <f>L24</f>
         <v>Principal</v>
@@ -35056,18 +35040,18 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="133">
+      <c r="B24" s="132">
         <f>M22</f>
         <v>4</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="134">
+      <c r="D24" s="133">
         <f>M23</f>
         <v>45</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="136">
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135">
         <f>M24</f>
         <v>59</v>
       </c>
@@ -35085,12 +35069,12 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="133"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="137"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="136"/>
       <c r="H25" s="5"/>
       <c r="L25" s="4" t="s">
         <v>12</v>
@@ -35127,12 +35111,12 @@
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
       <c r="G27" s="38" t="s">
         <v>48</v>
       </c>
@@ -35170,14 +35154,14 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="5"/>
       <c r="L29" s="4" t="s">
         <v>13</v>
@@ -35224,14 +35208,14 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
       <c r="H32" s="5"/>
       <c r="J32" s="4" t="s">
         <v>50</v>
@@ -35239,12 +35223,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -35255,12 +35239,12 @@
         <v>Mentor</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="141" t="str">
+      <c r="D34" s="140" t="str">
         <f>L26</f>
         <v>Principal</v>
       </c>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
       <c r="G34" s="43" t="str">
         <f>L27</f>
         <v>Mentor</v>
@@ -35326,12 +35310,12 @@
         <v>59</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="138">
+      <c r="D40" s="137">
         <f>M26</f>
         <v>59</v>
       </c>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
       <c r="G40" s="46">
         <f>M27</f>
         <v>59</v>
@@ -35357,10 +35341,10 @@
       <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="38"/>
       <c r="H42" s="19"/>
       <c r="I42"/>
@@ -35380,14 +35364,14 @@
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
       <c r="H44" s="19"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -35484,22 +35468,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -35546,7 +35530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434BE06-20F2-4A86-B80B-41A540F12E89}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -35590,9 +35574,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -35625,12 +35609,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -35647,24 +35631,24 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -35674,12 +35658,12 @@
         <v>Mentor</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="143" t="str">
+      <c r="D10" s="142" t="str">
         <f>Page2!$L$29</f>
         <v>Guardian</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="52" t="str">
         <f>Page2!$L$30</f>
         <v>Principal</v>
@@ -35773,12 +35757,12 @@
       <c r="B18" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="29" t="s">
         <v>15</v>
       </c>
@@ -35796,14 +35780,14 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
+      <c r="B20" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="20"/>
       <c r="O20"/>
     </row>
@@ -35821,14 +35805,14 @@
     </row>
     <row r="22" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="5"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
@@ -35847,13 +35831,13 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="19"/>
       <c r="H24" s="5"/>
       <c r="M24" s="26"/>
@@ -35861,11 +35845,11 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
       <c r="M25" s="26"/>
@@ -35909,52 +35893,52 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="23"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="23"/>
       <c r="G30" s="19"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="23"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="19"/>
@@ -35974,45 +35958,45 @@
     </row>
     <row r="35" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="5"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
       <c r="G36" s="5"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="142" t="s">
+      <c r="B37" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="5"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
       <c r="G38" s="5"/>
       <c r="H38" s="19"/>
     </row>
@@ -36056,12 +36040,12 @@
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="23"/>
       <c r="G42" s="5"/>
       <c r="H42" s="19"/>
@@ -36070,10 +36054,10 @@
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="23"/>
       <c r="G43" s="5"/>
       <c r="H43" s="19"/>
@@ -36082,10 +36066,10 @@
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="23"/>
       <c r="G44" s="5"/>
       <c r="H44" s="19"/>
@@ -36097,10 +36081,10 @@
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="23"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
@@ -36109,10 +36093,10 @@
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
@@ -36135,13 +36119,13 @@
     </row>
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48"/>
@@ -36152,11 +36136,11 @@
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49"/>
@@ -36191,22 +36175,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -36252,8 +36236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC574C-F71D-4F93-BDA6-6466FDBEE55E}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36296,9 +36280,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -36331,12 +36315,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -36353,24 +36337,24 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -36380,7 +36364,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="5"/>
@@ -36394,7 +36378,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="118"/>
+      <c r="G11" s="117"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -36406,7 +36390,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="118"/>
+      <c r="G12" s="117"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -36416,7 +36400,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="118"/>
+      <c r="G13" s="117"/>
       <c r="H13" s="5"/>
       <c r="N13" s="18" t="s">
         <v>0</v>
@@ -36434,97 +36418,97 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146" t="s">
+      <c r="F15" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="146"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="126" t="s">
+      <c r="G16" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="126" t="s">
+      <c r="G18" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
       <c r="L20"/>
       <c r="O20"/>
     </row>
@@ -36642,11 +36626,11 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -36654,9 +36638,9 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
@@ -36664,9 +36648,9 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
@@ -36674,14 +36658,14 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -36700,7 +36684,7 @@
     <row r="35" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -36746,7 +36730,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="62"/>
@@ -36910,22 +36894,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -36944,15 +36928,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B30:D32"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -36963,6 +36938,15 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B30:D32"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -36975,8 +36959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEA2E7-C5B1-4E99-A95B-A342A222800A}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37019,9 +37003,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -37054,12 +37038,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -37071,7 +37055,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="149" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
@@ -37085,7 +37069,7 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="150"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -37095,7 +37079,7 @@
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="150"/>
+      <c r="G9" s="149"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -37126,10 +37110,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="150"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37275,9 +37259,7 @@
     </row>
     <row r="23" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="54">
-        <v>3</v>
-      </c>
+      <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="19"/>
@@ -37396,7 +37378,7 @@
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -37430,7 +37412,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="23"/>
       <c r="C36" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="62"/>
@@ -37625,22 +37607,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -37676,8 +37658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7604687A-0445-499C-A266-22A92DD401C4}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37720,9 +37702,9 @@
     </row>
     <row r="3" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -37755,12 +37737,12 @@
     </row>
     <row r="6" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -37772,7 +37754,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="149" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
@@ -37786,7 +37768,7 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="150"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -37796,7 +37778,7 @@
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="150"/>
+      <c r="G9" s="149"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -37827,10 +37809,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="150"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37976,9 +37958,7 @@
     </row>
     <row r="23" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="54">
-        <v>3</v>
-      </c>
+      <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="19"/>
@@ -38097,7 +38077,7 @@
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -38131,7 +38111,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="23"/>
       <c r="C36" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="62"/>
@@ -38326,22 +38306,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -38377,8 +38357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEE0BCF-FA5C-4A2C-888F-5B563EC2DF79}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A12" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -38421,9 +38401,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -38456,18 +38436,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -38484,24 +38464,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -38517,7 +38497,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -38537,7 +38517,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38549,7 +38529,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38559,7 +38539,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38580,20 +38560,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -38621,10 +38601,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -38644,10 +38624,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -38661,10 +38641,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -38679,10 +38659,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -38695,10 +38675,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -38770,9 +38750,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -38804,7 +38782,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -38826,12 +38804,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -38889,11 +38867,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -39051,22 +39029,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -39085,23 +39063,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39115,7 +39093,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39158,9 +39136,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -39193,18 +39171,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -39221,24 +39199,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -39254,7 +39232,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -39274,7 +39252,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39286,7 +39264,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39296,7 +39274,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39317,20 +39295,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -39358,10 +39336,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -39381,10 +39359,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -39398,10 +39376,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -39416,10 +39394,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -39432,10 +39410,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -39507,9 +39485,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -39541,7 +39517,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -39563,12 +39539,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -39626,11 +39602,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -39788,22 +39764,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -39822,6 +39798,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -39834,11 +39815,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39852,7 +39828,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39895,9 +39871,9 @@
     </row>
     <row r="3" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="115">
+      <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45240</v>
+        <v>45241</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -39930,18 +39906,18 @@
     </row>
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -39958,24 +39934,24 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
         <v>54</v>
@@ -39991,7 +39967,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="5"/>
@@ -40011,7 +39987,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="155"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,7 +39999,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="155"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40033,7 +40009,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="155"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -40054,20 +40030,20 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -40095,10 +40071,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="152" t="s">
+      <c r="G18" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
@@ -40118,10 +40094,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="152"/>
+      <c r="H19" s="151"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -40135,10 +40111,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="152"/>
+      <c r="H20" s="151"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -40153,10 +40129,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="152" t="s">
+      <c r="G21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="152"/>
+      <c r="H21" s="151"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
@@ -40169,10 +40145,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="152"/>
+      <c r="H22" s="151"/>
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
@@ -40244,9 +40220,7 @@
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="54">
-        <v>3</v>
-      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -40278,7 +40252,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -40300,12 +40274,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -40363,11 +40337,11 @@
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="5"/>
       <c r="H39" s="19"/>
       <c r="I39"/>
@@ -40525,22 +40499,22 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="D54" s="12"/>
@@ -40559,6 +40533,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -40571,11 +40550,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level2.xlsx
+++ b/api-server-django/api/assessment/sample/level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B58DC6-04B8-4F79-8822-69721DA866C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA0657-70AA-4F34-847A-33C8DF950B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -186,12 +186,6 @@
     <t xml:space="preserve">The Power dimensions represent the High impact, most preferred and frequently used, naturally expressed dimension by the individual. </t>
   </si>
   <si>
-    <t>Purpose Statements</t>
-  </si>
-  <si>
-    <t>Passion Statements</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Your TOP 3 LW Dimensions Based on </t>
     </r>
@@ -336,12 +330,6 @@
     <t>Lesser Preffered Activities/tasks aligned with your Passion</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesser Preferred Purpose </t>
-  </si>
-  <si>
-    <t>Lesser Preferred Passion</t>
-  </si>
-  <si>
     <t>You are Motivated to Help &amp; Care for others.</t>
   </si>
   <si>
@@ -358,12 +346,6 @@
   </si>
   <si>
     <t>Pain Dimension - I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least Preferred Purpose </t>
-  </si>
-  <si>
-    <t>Least Preferred Passion</t>
   </si>
   <si>
     <t>Least Preffered Activities/tasks aligned with your Passion</t>
@@ -535,6 +517,24 @@
   </si>
   <si>
     <t>user_name's Inclination</t>
+  </si>
+  <si>
+    <t>Your Purpose</t>
+  </si>
+  <si>
+    <t>Your Passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Lesser Preferred Purpose </t>
+  </si>
+  <si>
+    <t>Your Lesser Preferred Passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Least Preferred Purpose </t>
+  </si>
+  <si>
+    <t>Your Least Preferred Passion</t>
   </si>
 </sst>
 </file>
@@ -1461,17 +1461,17 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1480,14 +1480,20 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1495,8 +1501,8 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,6 +1519,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1522,24 +1540,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1547,6 +1547,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1561,23 +1564,20 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -13075,8 +13075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5865607" y="99060"/>
-          <a:ext cx="3872597" cy="1027965"/>
+          <a:off x="5858338" y="99060"/>
+          <a:ext cx="3876958" cy="1028086"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -19111,8 +19111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5872942" y="99060"/>
-          <a:ext cx="3870967" cy="1041004"/>
+          <a:off x="5872552" y="99060"/>
+          <a:ext cx="3870576" cy="1018369"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -24008,8 +24008,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5873931" y="99060"/>
-          <a:ext cx="3871957" cy="1022202"/>
+          <a:off x="5847847" y="99060"/>
+          <a:ext cx="3874626" cy="1023229"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -25957,8 +25957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5888026" y="61903"/>
-          <a:ext cx="3871704" cy="1046110"/>
+          <a:off x="5888243" y="61903"/>
+          <a:ext cx="3869972" cy="1017103"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -26064,8 +26064,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>608300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4451</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>461795</xdr:rowOff>
     </xdr:from>
@@ -28273,7 +28273,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">TODAY()</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -28745,7 +28745,7 @@
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -28840,8 +28840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02CE9F8-2553-49D1-9843-FA55430A7AC2}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28886,7 +28886,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -28929,26 +28929,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -28967,10 +28967,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -28980,39 +28980,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>78</v>
+      <c r="G10" s="154" t="s">
+        <v>72</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29022,7 +29022,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29035,20 +29035,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -29064,51 +29064,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -29118,14 +29118,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -29136,14 +29136,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -29152,14 +29152,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -29192,7 +29192,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -29205,9 +29205,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -29219,9 +29217,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -29265,7 +29261,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -29277,7 +29273,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -29287,12 +29283,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -29345,7 +29341,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -29546,11 +29542,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -29563,6 +29554,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -29575,8 +29571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B51258D-179A-4C5F-9DF3-27E53A9441F4}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29621,7 +29617,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -29664,26 +29660,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -29702,10 +29698,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -29715,39 +29711,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>78</v>
+      <c r="G10" s="154" t="s">
+        <v>72</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29757,7 +29753,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29770,20 +29766,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -29799,51 +29795,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -29853,14 +29849,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -29871,14 +29867,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -29887,14 +29883,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -29927,7 +29923,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -29940,9 +29936,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -29954,9 +29948,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -30000,7 +29992,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -30012,7 +30004,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -30022,12 +30014,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30080,7 +30072,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -30281,11 +30273,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -30298,6 +30285,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30310,8 +30302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C438546-5D93-481E-A881-536A5EFA4449}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30356,7 +30348,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -30399,26 +30391,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -30437,10 +30429,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -30450,39 +30442,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>78</v>
+      <c r="G10" s="154" t="s">
+        <v>72</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30492,7 +30484,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -30505,20 +30497,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -30534,51 +30526,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -30588,14 +30580,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -30606,14 +30598,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -30622,14 +30614,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -30662,7 +30654,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -30675,9 +30667,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -30689,9 +30679,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -30735,7 +30723,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -30747,7 +30735,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -30757,12 +30745,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30815,7 +30803,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -31016,11 +31004,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -31033,6 +31016,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31045,8 +31033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FD2A84-99E2-4006-BC8F-518A83486652}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31088,7 +31076,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -31131,14 +31119,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="B7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31153,24 +31141,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="163" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
+      <c r="B9" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31182,16 +31170,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="165" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="171" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="164" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="164"/>
+      <c r="F11" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="170"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31214,7 +31202,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -31229,8 +31217,8 @@
       <c r="B13" s="65"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31249,8 +31237,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31267,8 +31255,8 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
       <c r="G15" s="19"/>
@@ -31376,16 +31364,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="B21" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="161"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="160"/>
+      <c r="F21" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="162"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31401,8 +31389,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -31411,8 +31399,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -31421,8 +31409,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="114"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -31433,8 +31421,8 @@
       <c r="B26" s="65"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -31443,16 +31431,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -31460,14 +31448,14 @@
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="65"/>
-      <c r="F29" s="164" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="164"/>
+      <c r="F29" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="170"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -31603,16 +31591,16 @@
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="160"/>
+      <c r="B43" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="161"/>
+      <c r="D43" s="162"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="160"/>
+      <c r="F43" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="162"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31628,8 +31616,8 @@
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="80"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="162"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="19"/>
       <c r="F45" s="76"/>
       <c r="G45" s="77"/>
@@ -31638,8 +31626,8 @@
     <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="80"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="162"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="19"/>
       <c r="F46" s="76"/>
       <c r="G46" s="77"/>
@@ -31648,8 +31636,8 @@
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="81"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="71"/>
       <c r="F47" s="78"/>
       <c r="G47" s="79"/>
@@ -31657,22 +31645,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -31734,18 +31722,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -31762,6 +31738,18 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31817,7 +31805,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -31861,7 +31849,7 @@
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="173" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="173"/>
@@ -31882,22 +31870,22 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31909,16 +31897,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="165" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="171" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="164" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="164"/>
+      <c r="F11" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="170"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31941,7 +31929,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -31956,8 +31944,8 @@
       <c r="B13" s="65"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31976,8 +31964,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31994,8 +31982,8 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
       <c r="G15" s="19"/>
@@ -32103,16 +32091,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
+      <c r="B21" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="161"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="160"/>
+      <c r="F21" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="162"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -32128,8 +32116,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -32138,8 +32126,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -32148,8 +32136,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -32160,8 +32148,8 @@
       <c r="B26" s="65"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -32170,16 +32158,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -32259,7 +32247,7 @@
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="172" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C36" s="172"/>
       <c r="D36" s="172"/>
@@ -32361,7 +32349,7 @@
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="174" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="174"/>
@@ -32382,24 +32370,24 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="168" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
+      <c r="B48" s="159" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -32461,6 +32449,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B9:G10"/>
     <mergeCell ref="B36:G38"/>
     <mergeCell ref="A53:H53"/>
@@ -32477,13 +32472,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -32539,7 +32527,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -32582,14 +32570,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="B7" s="168" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32604,24 +32592,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
+      <c r="B9" s="175" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -32654,22 +32642,22 @@
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="91" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="105"/>
       <c r="E12" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F12" s="105"/>
       <c r="G12" s="105" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -32702,16 +32690,16 @@
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="177"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="178"/>
+      <c r="E14" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="178"/>
       <c r="G14" s="95"/>
       <c r="H14" s="19"/>
       <c r="L14" s="4" t="s">
@@ -32788,16 +32776,16 @@
     <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="112" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="176" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="177"/>
+        <v>108</v>
+      </c>
+      <c r="C18" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="178"/>
+      <c r="E18" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="178"/>
       <c r="G18" s="95"/>
       <c r="H18" s="19"/>
       <c r="L18" s="4" t="s">
@@ -32844,16 +32832,16 @@
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="176" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="177"/>
+        <v>109</v>
+      </c>
+      <c r="C21" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="178"/>
+      <c r="E21" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="178"/>
       <c r="G21" s="95"/>
       <c r="H21" s="19"/>
     </row>
@@ -32880,16 +32868,16 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="177"/>
+        <v>110</v>
+      </c>
+      <c r="C24" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="178"/>
+      <c r="E24" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="178"/>
       <c r="G24" s="96"/>
       <c r="H24" s="19"/>
     </row>
@@ -32916,16 +32904,16 @@
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="176" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="177"/>
+        <v>111</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="178"/>
+      <c r="E27" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="178"/>
       <c r="G27" s="95"/>
       <c r="H27" s="19"/>
     </row>
@@ -32982,10 +32970,10 @@
     </row>
     <row r="33" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="178" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="178"/>
+      <c r="B33" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="179"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -33005,7 +32993,7 @@
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -33101,9 +33089,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -33119,16 +33107,16 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -33157,9 +33145,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="175"/>
-      <c r="I49" s="175"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
     </row>
     <row r="50" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -33168,9 +33156,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -33221,11 +33209,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E18:F18"/>
@@ -33240,6 +33223,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -33296,7 +33284,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -33339,10 +33327,10 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="178" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="178"/>
+      <c r="B7" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="179"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -33361,24 +33349,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="180" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -33390,12 +33378,12 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -33418,7 +33406,7 @@
       <c r="G12" s="66"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -33514,16 +33502,16 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
       <c r="F17" s="142"/>
-      <c r="G17" s="175" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
+      <c r="G17" s="176" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
@@ -33559,7 +33547,7 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="181" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C19" s="181"/>
       <c r="D19" s="63"/>
@@ -33592,25 +33580,25 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="179" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
+      <c r="B21" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -33649,45 +33637,45 @@
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -33695,9 +33683,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="67"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -33711,11 +33699,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="183" t="s">
+      <c r="G31" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33743,7 +33731,7 @@
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="181" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C34" s="181"/>
       <c r="D34" s="5"/>
@@ -33766,49 +33754,49 @@
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
+      <c r="B36" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="184" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
+      <c r="B39" s="180" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -33904,16 +33892,16 @@
       <c r="A48" s="5"/>
       <c r="B48" s="19"/>
       <c r="C48" s="89" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="175" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="175"/>
-      <c r="I48" s="175"/>
+      <c r="G48" s="176" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -33984,12 +33972,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="D17:F17"/>
@@ -34002,6 +33984,12 @@
     <mergeCell ref="B21:G22"/>
     <mergeCell ref="B26:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -34014,8 +34002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7DA315-18D3-44DF-A980-2EFCA192861E}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34057,7 +34045,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -34101,7 +34089,7 @@
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="82" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="19"/>
@@ -34123,7 +34111,7 @@
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="94" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
@@ -34180,7 +34168,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M12" s="37">
         <v>45</v>
@@ -34294,7 +34282,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="67"/>
       <c r="C18" s="87" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
@@ -34317,9 +34305,9 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
       <c r="F19" s="73"/>
       <c r="G19" s="88"/>
       <c r="H19" s="5"/>
@@ -34346,11 +34334,11 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="178" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
+      <c r="B21" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -34358,9 +34346,9 @@
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -34369,7 +34357,7 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="121" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" s="121"/>
       <c r="D23" s="121"/>
@@ -34410,14 +34398,14 @@
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="178" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
+      <c r="B27" s="179" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34433,7 +34421,7 @@
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="185" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" s="185"/>
       <c r="D29" s="185"/>
@@ -34526,7 +34514,7 @@
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="172" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" s="172"/>
       <c r="D38" s="172"/>
@@ -34628,7 +34616,7 @@
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="187" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" s="187"/>
       <c r="D48" s="187"/>
@@ -34650,7 +34638,7 @@
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="186" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C50" s="186"/>
       <c r="D50" s="186"/>
@@ -34729,7 +34717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288371C-FBD6-46BE-A8A0-B55AC3B5E822}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -34775,7 +34763,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -34932,7 +34920,7 @@
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="130"/>
       <c r="D17" s="130"/>
@@ -35109,16 +35097,16 @@
     <row r="27" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="127"/>
       <c r="F27" s="127"/>
       <c r="G27" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="5"/>
       <c r="L27" s="4" t="s">
@@ -35155,7 +35143,7 @@
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="131" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
@@ -35218,7 +35206,7 @@
       <c r="G32" s="130"/>
       <c r="H32" s="5"/>
       <c r="J32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -35339,7 +35327,7 @@
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="127"/>
       <c r="D42" s="127"/>
@@ -35530,7 +35518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434BE06-20F2-4A86-B80B-41A540F12E89}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -35576,7 +35564,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -35620,7 +35608,7 @@
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -35781,7 +35769,7 @@
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="131" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C20" s="131"/>
       <c r="D20" s="131"/>
@@ -35806,7 +35794,7 @@
     <row r="22" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="144" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -35832,7 +35820,7 @@
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="141"/>
       <c r="D24" s="141"/>
@@ -35870,7 +35858,7 @@
     <row r="27" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -35894,7 +35882,7 @@
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="121"/>
@@ -35947,7 +35935,7 @@
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -35959,7 +35947,7 @@
     <row r="35" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="121" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="121"/>
       <c r="D35" s="121"/>
@@ -35981,7 +35969,7 @@
     <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -36015,7 +36003,7 @@
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -36041,7 +36029,7 @@
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" s="121"/>
       <c r="D42" s="121"/>
@@ -36076,7 +36064,7 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -36106,7 +36094,7 @@
     <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -36120,7 +36108,7 @@
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="121" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="121"/>
       <c r="D48" s="121"/>
@@ -36236,8 +36224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC574C-F71D-4F93-BDA6-6466FDBEE55E}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A12" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36282,7 +36270,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -36365,14 +36353,14 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -36384,7 +36372,7 @@
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -36418,29 +36406,29 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="19"/>
       <c r="G16" s="125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="125"/>
@@ -36449,14 +36437,14 @@
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="19"/>
       <c r="G17" s="125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
@@ -36465,14 +36453,14 @@
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="125"/>
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="19"/>
       <c r="G18" s="125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="125"/>
@@ -36481,14 +36469,14 @@
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="125"/>
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="19"/>
       <c r="G19" s="125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
@@ -36497,14 +36485,14 @@
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="125"/>
@@ -36539,7 +36527,7 @@
     <row r="23" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -36552,9 +36540,7 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="54">
-        <v>1</v>
-      </c>
+      <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="19"/>
@@ -36566,9 +36552,7 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="54">
-        <v>2</v>
-      </c>
+      <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="19"/>
@@ -36615,7 +36599,7 @@
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="19"/>
@@ -36626,11 +36610,11 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
+      <c r="B30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -36638,9 +36622,9 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
@@ -36648,9 +36632,9 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
@@ -36658,21 +36642,21 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -36684,7 +36668,7 @@
     <row r="35" spans="1:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -36723,14 +36707,14 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="62"/>
@@ -36744,7 +36728,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -36928,6 +36912,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B30:D32"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -36938,15 +36931,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B30:D32"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -36959,8 +36943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEA2E7-C5B1-4E99-A95B-A342A222800A}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37005,7 +36989,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -37049,21 +37033,21 @@
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -37105,13 +37089,13 @@
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="36" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
       <c r="F12" s="150" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="G12" s="150"/>
       <c r="H12" s="5"/>
@@ -37119,14 +37103,14 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="19"/>
       <c r="G13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="17"/>
       <c r="N13" s="18" t="s">
@@ -37136,28 +37120,28 @@
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="19"/>
       <c r="G14" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="19"/>
       <c r="G15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="s">
@@ -37170,28 +37154,28 @@
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
       <c r="G17" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -37218,7 +37202,7 @@
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -37231,9 +37215,7 @@
     </row>
     <row r="21" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="54">
-        <v>1</v>
-      </c>
+      <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="19"/>
@@ -37245,9 +37227,7 @@
     </row>
     <row r="22" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="54">
-        <v>2</v>
-      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="19"/>
@@ -37308,7 +37288,7 @@
     <row r="27" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -37322,7 +37302,7 @@
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="5"/>
@@ -37354,7 +37334,7 @@
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -37366,7 +37346,7 @@
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -37378,7 +37358,7 @@
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -37412,7 +37392,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="23"/>
       <c r="C36" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="62"/>
@@ -37426,7 +37406,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -37658,8 +37638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7604687A-0445-499C-A266-22A92DD401C4}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37704,7 +37684,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -37748,21 +37728,21 @@
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -37804,13 +37784,13 @@
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="36" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="22"/>
       <c r="F12" s="150" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="G12" s="150"/>
       <c r="H12" s="5"/>
@@ -37818,14 +37798,14 @@
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="19"/>
       <c r="G13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="17"/>
       <c r="N13" s="18" t="s">
@@ -37835,28 +37815,28 @@
     <row r="14" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="19"/>
       <c r="G14" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="19"/>
       <c r="G15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="s">
@@ -37869,28 +37849,28 @@
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
       <c r="G17" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -37917,7 +37897,7 @@
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -37930,9 +37910,7 @@
     </row>
     <row r="21" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="54">
-        <v>1</v>
-      </c>
+      <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="19"/>
@@ -37944,9 +37922,7 @@
     </row>
     <row r="22" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="54">
-        <v>2</v>
-      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="19"/>
@@ -38007,7 +37983,7 @@
     <row r="27" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -38021,7 +37997,7 @@
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="5"/>
@@ -38053,7 +38029,7 @@
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -38065,7 +38041,7 @@
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -38077,7 +38053,7 @@
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -38111,7 +38087,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="23"/>
       <c r="C36" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="62"/>
@@ -38125,7 +38101,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -38357,8 +38333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEE0BCF-FA5C-4A2C-888F-5B563EC2DF79}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A3" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -38403,7 +38379,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -38446,26 +38422,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -38484,10 +38460,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -38497,39 +38473,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>51</v>
+      <c r="G10" s="154" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38539,7 +38515,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38552,20 +38528,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -38581,51 +38557,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -38635,14 +38611,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -38653,14 +38629,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -38669,14 +38645,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -38709,7 +38685,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -38722,9 +38698,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -38736,9 +38710,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -38782,7 +38754,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -38794,7 +38766,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -38804,12 +38776,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -38862,7 +38834,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39063,23 +39035,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39093,7 +39065,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39138,7 +39110,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -39181,26 +39153,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -39219,10 +39191,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -39232,39 +39204,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>51</v>
+      <c r="G10" s="154" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39274,7 +39246,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39287,20 +39259,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39316,51 +39288,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -39370,14 +39342,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -39388,14 +39360,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -39404,14 +39376,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -39444,7 +39416,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -39457,9 +39429,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -39471,9 +39441,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -39517,7 +39485,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -39529,7 +39497,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -39539,12 +39507,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -39597,7 +39565,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39798,11 +39766,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -39815,6 +39778,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39827,8 +39795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509D061-6827-4726-9A89-79245FF5FBE3}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39873,7 +39841,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="113">
         <f ca="1">Page1!B3</f>
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -39916,26 +39884,26 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="130"/>
@@ -39954,10 +39922,10 @@
       <c r="G9" s="130"/>
       <c r="H9" s="5"/>
       <c r="N9" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -39967,39 +39935,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="152" t="s">
-        <v>51</v>
+      <c r="G10" s="154" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="152"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="152"/>
+      <c r="G12" s="154"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40009,7 +39977,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="152"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -40022,20 +39990,20 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="N14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40051,51 +40019,51 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="36" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="154"/>
+      <c r="G17" s="153" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="151"/>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
       <c r="L18" s="32"/>
       <c r="N18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="151"/>
       <c r="J19" s="27"/>
@@ -40105,14 +40073,14 @@
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="151"/>
       <c r="J20" s="27"/>
@@ -40123,14 +40091,14 @@
     <row r="21" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="151"/>
       <c r="M21" s="26"/>
@@ -40139,14 +40107,14 @@
     <row r="22" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="5"/>
       <c r="G22" s="151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="151"/>
       <c r="M22" s="26"/>
@@ -40179,7 +40147,7 @@
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="60"/>
@@ -40192,9 +40160,7 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="54">
-        <v>1</v>
-      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -40206,9 +40172,7 @@
     </row>
     <row r="27" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="54">
-        <v>2</v>
-      </c>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -40252,7 +40216,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -40264,7 +40228,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -40274,12 +40238,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -40332,7 +40296,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40533,11 +40497,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -40550,6 +40509,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/api-server-django/api/assessment/sample/level2.xlsx
+++ b/api-server-django/api/assessment/sample/level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freelancing\Paraclete\api-server-django\api\assessment\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA0657-70AA-4F34-847A-33C8DF950B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B0472-2A35-4E5B-9287-D0250C5E88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="9" r:id="rId1"/>
@@ -1461,17 +1461,17 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1480,20 +1480,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1501,8 +1495,8 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,6 +1513,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1528,18 +1540,6 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1547,9 +1547,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1564,20 +1561,23 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -25543,8 +25543,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5902870" y="61903"/>
-          <a:ext cx="3872694" cy="1027308"/>
+          <a:off x="5931899" y="61903"/>
+          <a:ext cx="3865436" cy="1027308"/>
           <a:chOff x="5886834" y="0"/>
           <a:chExt cx="3873045" cy="1024379"/>
         </a:xfrm>
@@ -28929,11 +28929,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -28980,7 +28980,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="5"/>
@@ -29000,7 +29000,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29012,7 +29012,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29022,7 +29022,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29043,12 +29043,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -29070,10 +29070,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -29283,12 +29283,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -29542,6 +29542,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -29554,11 +29559,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -29571,7 +29571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B51258D-179A-4C5F-9DF3-27E53A9441F4}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
@@ -29660,11 +29660,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -29711,7 +29711,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="5"/>
@@ -29731,7 +29731,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29743,7 +29743,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -29753,7 +29753,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -29774,12 +29774,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -29801,10 +29801,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -30014,12 +30014,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -30273,6 +30273,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -30285,11 +30290,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30391,11 +30391,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -30442,7 +30442,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="5"/>
@@ -30462,7 +30462,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30474,7 +30474,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30484,7 +30484,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -30505,12 +30505,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -30532,10 +30532,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -30745,12 +30745,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -31004,6 +31004,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -31016,11 +31021,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31033,7 +31033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FD2A84-99E2-4006-BC8F-518A83486652}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -31119,14 +31119,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -31141,24 +31141,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31170,16 +31170,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="170" t="s">
+      <c r="F11" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="170"/>
+      <c r="G11" s="164"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31217,8 +31217,8 @@
       <c r="B13" s="65"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31237,8 +31237,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31255,8 +31255,8 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
       <c r="G15" s="19"/>
@@ -31364,16 +31364,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="162"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31389,8 +31389,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -31399,8 +31399,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -31409,8 +31409,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="114"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -31421,8 +31421,8 @@
       <c r="B26" s="65"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -31431,16 +31431,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -31448,14 +31448,14 @@
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
       <c r="E29" s="65"/>
-      <c r="F29" s="170" t="s">
+      <c r="F29" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="170"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -31591,16 +31591,16 @@
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="160" t="s">
+      <c r="B43" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="161"/>
-      <c r="D43" s="162"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="160"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="160" t="s">
+      <c r="F43" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="162"/>
+      <c r="G43" s="160"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31616,8 +31616,8 @@
     <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="80"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="164"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="162"/>
       <c r="E45" s="19"/>
       <c r="F45" s="76"/>
       <c r="G45" s="77"/>
@@ -31626,8 +31626,8 @@
     <row r="46" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="80"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="164"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="19"/>
       <c r="F46" s="76"/>
       <c r="G46" s="77"/>
@@ -31636,8 +31636,8 @@
     <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="81"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="166"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="71"/>
       <c r="F47" s="78"/>
       <c r="G47" s="79"/>
@@ -31645,22 +31645,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -31722,6 +31722,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -31738,18 +31750,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -31870,22 +31870,22 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -31897,16 +31897,16 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="63"/>
-      <c r="F11" s="170" t="s">
+      <c r="F11" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="170"/>
+      <c r="G11" s="164"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -31944,8 +31944,8 @@
       <c r="B13" s="65"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
       <c r="L13" s="4" t="s">
@@ -31964,8 +31964,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="65"/>
       <c r="H14" s="5"/>
       <c r="L14" s="4" t="s">
@@ -31982,8 +31982,8 @@
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
       <c r="G15" s="19"/>
@@ -32091,16 +32091,16 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="160" t="s">
+      <c r="F21" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="162"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -32116,8 +32116,8 @@
     <row r="23" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="80"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="19"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -32126,8 +32126,8 @@
     <row r="24" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="80"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="19"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -32136,8 +32136,8 @@
     <row r="25" spans="1:18" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
       <c r="E25" s="71"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79"/>
@@ -32148,8 +32148,8 @@
       <c r="B26" s="65"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
@@ -32158,16 +32158,16 @@
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="65"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="65"/>
       <c r="F28" s="67"/>
       <c r="G28" s="19"/>
@@ -32370,24 +32370,24 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -32449,13 +32449,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B9:G10"/>
     <mergeCell ref="B36:G38"/>
     <mergeCell ref="A53:H53"/>
@@ -32472,6 +32465,13 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -32570,14 +32570,14 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -32592,24 +32592,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -32692,14 +32692,14 @@
       <c r="B14" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="177" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="95"/>
       <c r="H14" s="19"/>
       <c r="L14" s="4" t="s">
@@ -32778,14 +32778,14 @@
       <c r="B18" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="177" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="178"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="95"/>
       <c r="H18" s="19"/>
       <c r="L18" s="4" t="s">
@@ -32834,14 +32834,14 @@
       <c r="B21" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="177" t="s">
+      <c r="D21" s="177"/>
+      <c r="E21" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="178"/>
+      <c r="F21" s="177"/>
       <c r="G21" s="95"/>
       <c r="H21" s="19"/>
     </row>
@@ -32870,14 +32870,14 @@
       <c r="B24" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="177" t="s">
+      <c r="D24" s="177"/>
+      <c r="E24" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="178"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="96"/>
       <c r="H24" s="19"/>
     </row>
@@ -32906,14 +32906,14 @@
       <c r="B27" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="177" t="s">
+      <c r="D27" s="177"/>
+      <c r="E27" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="178"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="95"/>
       <c r="H27" s="19"/>
     </row>
@@ -32970,10 +32970,10 @@
     </row>
     <row r="33" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="179"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -33089,9 +33089,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -33109,14 +33109,14 @@
       <c r="C46" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176" t="s">
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -33145,9 +33145,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
     </row>
     <row r="50" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -33156,9 +33156,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -33209,6 +33209,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="E18:F18"/>
@@ -33223,11 +33228,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -33241,7 +33241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDEE5E-130C-4BA5-800B-12DD5F229BFC}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="42" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -33327,10 +33327,10 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="178"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -33349,24 +33349,24 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="5"/>
       <c r="L10" s="4" t="s">
         <v>10</v>
@@ -33378,12 +33378,12 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
       <c r="H11" s="5"/>
       <c r="L11" s="4" t="s">
         <v>12</v>
@@ -33507,11 +33507,11 @@
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
       <c r="F17" s="142"/>
-      <c r="G17" s="176" t="s">
+      <c r="G17" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
@@ -33580,25 +33580,25 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
@@ -33637,45 +33637,45 @@
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -33683,9 +33683,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="67"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -33699,11 +33699,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="184" t="s">
+      <c r="G31" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -33754,49 +33754,49 @@
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
@@ -33897,11 +33897,11 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="176" t="s">
+      <c r="G48" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -33972,6 +33972,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:G11"/>
     <mergeCell ref="D17:F17"/>
@@ -33984,12 +33990,6 @@
     <mergeCell ref="B21:G22"/>
     <mergeCell ref="B26:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -34305,9 +34305,9 @@
     <row r="19" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
       <c r="F19" s="73"/>
       <c r="G19" s="88"/>
       <c r="H19" s="5"/>
@@ -34334,11 +34334,11 @@
     </row>
     <row r="21" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -34346,9 +34346,9 @@
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -34398,14 +34398,14 @@
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -35518,8 +35518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434BE06-20F2-4A86-B80B-41A540F12E89}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36406,16 +36406,16 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145" t="s">
+      <c r="F15" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -36610,11 +36610,11 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -36622,9 +36622,9 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
@@ -36632,9 +36632,9 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5"/>
@@ -36642,14 +36642,14 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147" t="s">
+      <c r="B33" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -36912,15 +36912,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B30:D32"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -36931,6 +36922,15 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B30:D32"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -38422,11 +38422,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -38473,7 +38473,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="5"/>
@@ -38493,7 +38493,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38505,7 +38505,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38515,7 +38515,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38536,12 +38536,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -38563,10 +38563,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -38776,12 +38776,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -39035,23 +39035,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="A53:H53"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39153,11 +39153,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -39204,7 +39204,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="5"/>
@@ -39224,7 +39224,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39236,7 +39236,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39246,7 +39246,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39267,12 +39267,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39294,10 +39294,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -39507,12 +39507,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -39766,6 +39766,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -39778,11 +39783,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -39795,7 +39795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4509D061-6827-4726-9A89-79245FF5FBE3}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
@@ -39884,11 +39884,11 @@
     </row>
     <row r="7" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -39935,7 +39935,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="152" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="5"/>
@@ -39955,7 +39955,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="154"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39967,7 +39967,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="154"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -39977,7 +39977,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="154"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39998,12 +39998,12 @@
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40025,10 +40025,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -40238,12 +40238,12 @@
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="19"/>
       <c r="R33" s="2"/>
     </row>
@@ -40497,6 +40497,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:D7"/>
@@ -40509,11 +40514,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
